--- a/biology/Botanique/Hypocalyptus/Hypocalyptus.xlsx
+++ b/biology/Botanique/Hypocalyptus/Hypocalyptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypocalyptus est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Afrique du Sud, qui comprend trois espèces acceptées. Le genre Hypocalyptus est connu en français comme l'Hypocalypte[3] ou la Loddigésie [4]. Seul le premier nom devrait être employé afin d'éviter toute ambiguïté, puisque le second nom vernaculaire est désuet, car le genre Loddigesia (et le nom vernaculaire correspondant Loddigésie) sont maintenant réservés à une espèce d'oiseau-mouche de la sous-famille des Trochilinae, la Loddigésie admirable. 
-Les trois espèces de ce genre, endémiques des provinces du Cap-Occidental et du Cap-Oriental en Afrique du Sud, sont inscrites sur la liste rouge des plantes d'Afrique du Sud en catégorie LC (préoccupation mineure)[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypocalyptus est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Afrique du Sud, qui comprend trois espèces acceptées. Le genre Hypocalyptus est connu en français comme l'Hypocalypte ou la Loddigésie . Seul le premier nom devrait être employé afin d'éviter toute ambiguïté, puisque le second nom vernaculaire est désuet, car le genre Loddigesia (et le nom vernaculaire correspondant Loddigésie) sont maintenant réservés à une espèce d'oiseau-mouche de la sous-famille des Trochilinae, la Loddigésie admirable. 
+Les trois espèces de ce genre, endémiques des provinces du Cap-Occidental et du Cap-Oriental en Afrique du Sud, sont inscrites sur la liste rouge des plantes d'Afrique du Sud en catégorie LC (préoccupation mineure). 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (21 septembre 2018)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (21 septembre 2018) :
 Hypocalyptus coluteoides (Lam.) R.Dahlgren
 Hypocalyptus oxalidifolius (Sims) Baill.
 Hypocalyptus sophoroides (P.J.Bergius) Baill.</t>
